--- a/документы/Пример_файла_ввода.xlsx
+++ b/документы/Пример_файла_ввода.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="80" windowWidth="19140" windowHeight="7340" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="80" windowWidth="19140" windowHeight="7340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="приоритеты" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>Вася</t>
   </si>
@@ -145,6 +145,18 @@
   </si>
   <si>
     <t>подряд - сразу после</t>
+  </si>
+  <si>
+    <t>можно наисать в начале</t>
+  </si>
+  <si>
+    <t>общую таблицу</t>
+  </si>
+  <si>
+    <t>можно оставить</t>
+  </si>
+  <si>
+    <t>без пар</t>
   </si>
 </sst>
 </file>
@@ -580,13 +592,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -594,10 +606,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -891,19 +903,51 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
+    <row r="19" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I11:K11"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="I16:K16"/>
     <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -913,7 +957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
@@ -1024,11 +1068,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H6:J6"/>
@@ -1036,6 +1075,11 @@
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/документы/Пример_файла_ввода.xlsx
+++ b/документы/Пример_файла_ввода.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>Вася</t>
   </si>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t>без пар</t>
+  </si>
+  <si>
+    <t>можно писать +/- 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">что значит </t>
+  </si>
+  <si>
+    <t>обязательно не сейчас</t>
+  </si>
+  <si>
+    <t>обязательно сейчас или</t>
   </si>
 </sst>
 </file>
@@ -606,10 +618,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22:K22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -931,18 +943,47 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
+    <row r="23" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="18">
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I11:K11"/>
     <mergeCell ref="I21:K21"/>
     <mergeCell ref="I22:K22"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I11:K11"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="I17:K17"/>

--- a/документы/Пример_файла_ввода.xlsx
+++ b/документы/Пример_файла_ввода.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="80" windowWidth="19140" windowHeight="7340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="80" windowWidth="19140" windowHeight="7340"/>
   </bookViews>
   <sheets>
     <sheet name="приоритеты" sheetId="1" r:id="rId1"/>
@@ -512,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11:K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="D1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -602,15 +602,33 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
+  <mergeCells count="10">
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -620,7 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -971,24 +989,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I11:K11"/>
     <mergeCell ref="I16:K16"/>
     <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
